--- a/PRiSh-EHRM_aleph.xlsx
+++ b/PRiSh-EHRM_aleph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaelg\PycharmProjects\Aleph_custom4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{937C0CFC-8F85-4F7D-ADE6-6D59F3C0901C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5D986-3C1D-41A9-955F-FF35B830E145}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{684DEAAB-7370-4403-8EEE-86FF0ABD3FDB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="199">
   <si>
     <t>PRiSh-EHRM</t>
   </si>
@@ -357,20 +357,292 @@
     <t>פריט</t>
   </si>
   <si>
-    <t>סימול/מספר מזהה</t>
+    <t>סימול</t>
+  </si>
+  <si>
+    <t>כותרת</t>
+  </si>
+  <si>
+    <t>אוסף רבקה שטורמן קיבוץ עין חרוד מאוחד</t>
+  </si>
+  <si>
+    <t>סרטים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ריקודי רבקה שטורמן </t>
+  </si>
+  <si>
+    <t>מסיבה לרבקה שטורמן, 26.5.89</t>
+  </si>
+  <si>
+    <t>סרט ריקודים, רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>לקט מריקודי רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>ריקודים שבועות</t>
+  </si>
+  <si>
+    <t>חג הביכורים בשנים 1998, 1993</t>
+  </si>
+  <si>
+    <t>טקס קציר העומר 1986</t>
+  </si>
+  <si>
+    <t>קציר העומר וליל הסדר, פסח 2009</t>
+  </si>
+  <si>
+    <t>קציר העומר 1994</t>
+  </si>
+  <si>
+    <t>סרט, חג הביכורים 1990</t>
+  </si>
+  <si>
+    <t>סרט אודות קיבוץ עין חרוד</t>
+  </si>
+  <si>
+    <t>סרט, חג הביכורים 1995</t>
+  </si>
+  <si>
+    <t>"הבה נצא במחול": 1978 - רבקה בת 75, לקט מריקודי רבקה שטורמן, צילם: צפריר רונן</t>
+  </si>
+  <si>
+    <t>"הבה נצא במחול": לקט מריקודי רבקה שטורמן - 1986</t>
+  </si>
+  <si>
+    <t>תצלומים</t>
+  </si>
+  <si>
+    <t>תצלומים של רבקה שטורמן ומשפחתה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תצלומים של מנחם שטורמן </t>
+  </si>
+  <si>
+    <t>תצלומים של רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>תצלומים של משפחת יוסף</t>
+  </si>
+  <si>
+    <t>תצלומים מהלווית רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>תצלומים של המרקידים באולם הספורט עין חרוד</t>
+  </si>
+  <si>
+    <t>בית הספר חגי מחזור ממחזור טז 1953 עד כה 1962 דפדפת 2</t>
+  </si>
+  <si>
+    <t>חג הבכורים 2000- בכורים דפדפת 9 שנת 1999</t>
+  </si>
+  <si>
+    <t>חג הבכורים מ-1960 עד 1970</t>
+  </si>
+  <si>
+    <t>חג הבכורים מתחיל 1988 עד סוף 1996 דפדפת 5</t>
+  </si>
+  <si>
+    <t>חג הבכורים שנת 2001 תשסא דפדפת מס 10</t>
+  </si>
+  <si>
+    <t>חג השבועות 1997-1998 וטקס החג. חג הבכורים 1997 וטקס החג 1998 - 6</t>
+  </si>
+  <si>
+    <t>פסח 1998 דפדפת מס 6</t>
+  </si>
+  <si>
+    <t>פסח מ-1984 עד סוף 1987</t>
+  </si>
+  <si>
+    <t>פסח מ-1988 עד סוף 1991 דפדפת מס 4</t>
+  </si>
+  <si>
+    <t>פסח מ-2003 עד--, דפדפת 8</t>
+  </si>
+  <si>
+    <t>חג הבכורים צילומים בשחור לבן מ-1971 עד סוף 1982</t>
+  </si>
+  <si>
+    <t>פסח משנות ראשית ועד סוף 1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלבום תצלומים, חג הביכורים 2002 </t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, חג הביכורים 1983-1987</t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, חג הביכורים משנות ראשית עד 1959</t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, חג פסח 1999-2002</t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, חג פסח 1970-1983</t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, רבקה שטורמן 1973-1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלבום תצלומים וגזרי עיתון </t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, מנחם שטורמן</t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, לווייתה של רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>אלבום תצלומים, אירוע ריקודי-עם</t>
+  </si>
+  <si>
+    <t>תצלומים, רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>רבקה שטורמן - יום הולדת 70, 1973 (הצלומים בדפדפת צילומי תרבות כללי)</t>
+  </si>
+  <si>
+    <t>תצלומים, מסכת גדעון - ועידת הקיבוץ המאוחד 1960</t>
+  </si>
+  <si>
+    <t>תצלומים של צפורה דוד</t>
+  </si>
+  <si>
+    <t>מסמכים</t>
+  </si>
+  <si>
+    <t>תעודות אישיות</t>
+  </si>
+  <si>
+    <t>ביוגרפיה ופעילות מקצועית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חומר לפרס ישראל </t>
+  </si>
+  <si>
+    <t>פרס ריקודי-עם בכרמיאל 1991</t>
+  </si>
+  <si>
+    <t>אודות הספר "קומה אחא" מאת רנה שרת</t>
+  </si>
+  <si>
+    <t>פסטיבל כרמיאל - מחווה לרבקה שטורמן</t>
+  </si>
+  <si>
+    <t>מסיבות ימי הולדת לרבקה שטורמן</t>
+  </si>
+  <si>
+    <t>ברכת יום הולדת לרבקה שטורמן</t>
+  </si>
+  <si>
+    <t>מכתבים מאת רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>מכתבים אל רבקה שטורמן מאת אנשים פרטיים</t>
+  </si>
+  <si>
+    <t>מכתבים אל רבקה שטורמן - מוסדות</t>
+  </si>
+  <si>
+    <t>הספדים לרבקה שטורמן ומסמכים מהלווייתה</t>
+  </si>
+  <si>
+    <t>רשימות ארכיון קיבוץ עין חרוד מאוחד</t>
+  </si>
+  <si>
+    <t>חוברות ריקודי עם: "הבה נצא במחול", "רקודי-עם לכל הגילים"</t>
+  </si>
+  <si>
+    <t>אפמרה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כרזה, מחווה ליוצרת רבקה שטורמן </t>
+  </si>
+  <si>
+    <t>הזמנה לערב השקת הספר "קומה אחא"</t>
+  </si>
+  <si>
+    <t>כרזה, ערב הוקרה לרבקה שטורמן</t>
+  </si>
+  <si>
+    <t>כרזה, ערב ריקודי עם ועמים</t>
+  </si>
+  <si>
+    <t>הזמנה למחנה ריקודי-עם</t>
+  </si>
+  <si>
+    <t>כרזה, נשף סיום לימודים</t>
+  </si>
+  <si>
+    <t>הזמנה למרתון ריקודים בקיבוץ עין חרוד מאוחד</t>
+  </si>
+  <si>
+    <t>הזמנה לערב ריקודים עם רבקה שטורמן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הזמנה לערב ריקודים </t>
+  </si>
+  <si>
+    <t>הזמנה להופעה של רבקה שטורמן בסיור באמריקה ובאירופה</t>
+  </si>
+  <si>
+    <t>מודעת אבל, רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>הזמנה לטקס האזכרה של רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>כרזה, במלאת שלושים לפטירתה של רבקה שטורמן</t>
+  </si>
+  <si>
+    <t>מעטפה, היום הראשון לפתיחת דואר דליה בישראל</t>
+  </si>
+  <si>
+    <t>תכניה, להקת כרמון</t>
+  </si>
+  <si>
+    <t>עיתונות</t>
+  </si>
+  <si>
+    <t>עיתונות יומית העוסקת ברבקה שטורמן</t>
+  </si>
+  <si>
+    <t>יומני עין-חרוד</t>
+  </si>
+  <si>
+    <t>עיתונות מקומית</t>
+  </si>
+  <si>
+    <t>כתבי-עת</t>
+  </si>
+  <si>
+    <t>עלון "חברת הילדים"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,7 +654,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -390,12 +662,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,860 +1000,1178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764E5402-6E08-48BC-8E63-6F84DBC9B7D3}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="C66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="C67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="C70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="C84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="C91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="C92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="C97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="C98" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="C99" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="C100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="C101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="C102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="C103" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="C104" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="C105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
